--- a/data/LCDataDictionary.xlsx
+++ b/data/LCDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdine\Documents\1.MachineLearning\hicss2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D906A4C-8150-4A68-BA79-34DCCB85913E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F532E186-5064-4258-A1DB-7BF94ABDDA49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34380" yWindow="2565" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
@@ -2252,14 +2252,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145:B145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>291</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>285</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>252</v>
       </c>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>296</v>
       </c>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>297</v>
       </c>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>105</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>166</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>277</v>
       </c>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>287</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>289</v>
       </c>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>283</v>
       </c>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>299</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>124</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>300</v>
       </c>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>108</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>273</v>
       </c>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>301</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>302</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>304</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>305</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>123</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>115</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>122</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>119</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="C73"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>110</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>266</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>269</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>271</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>335</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>279</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>281</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>306</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>129</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>103</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>225</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>128</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>113</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>275</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>293</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>217</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>294</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>257</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>247</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>310</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>312</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>314</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>316</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>318</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>320</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>322</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>324</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>336</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>327</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>329</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>331</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>333</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>347</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>348</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>349</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>350</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>351</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>352</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>353</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>354</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>355</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>356</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>357</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>358</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>359</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>360</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>361</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>362</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>345</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>346</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>363</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>340</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>364</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>365</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>366</v>
       </c>
@@ -3565,7 +3565,35 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B152" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="acc_open_past_24mths"/>
+        <filter val="annual_inc"/>
+        <filter val="delinq_amnt"/>
+        <filter val="emp_length"/>
+        <filter val="grade"/>
+        <filter val="home_ownership"/>
+        <filter val="inq_last_6mths"/>
+        <filter val="installment"/>
+        <filter val="int_rate"/>
+        <filter val="last_pymnt_amnt"/>
+        <filter val="loan_amnt"/>
+        <filter val="loan_status"/>
+        <filter val="revol_bal"/>
+        <filter val="sub_grade"/>
+        <filter val="tax_liens"/>
+        <filter val="term"/>
+        <filter val="title"/>
+        <filter val="tot_hi_cred_lim"/>
+        <filter val="total_bal_ex_mort"/>
+        <filter val="total_bc_limit"/>
+        <filter val="total_il_high_credit_limit"/>
+        <filter val="total_pymnt"/>
+        <filter val="total_rec_late_fee"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
@@ -3578,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
